--- a/Excel Files/H1N1_Canada_2009.xlsx
+++ b/Excel Files/H1N1_Canada_2009.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Joceline Lega\Documents\GitHub\EpiGro\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joceline Lega\Box Sync\DyMSiM\One- or Two-Parabola Models\MATLAB\Math_EpiGro_paper\MATLAB_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Reported Cases</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>Total Cases</t>
-  </si>
-  <si>
-    <t>Data from http://bmcresnotes.biomedcentral.com/articles/10.1186/1756-0500-3-283</t>
   </si>
 </sst>
 </file>
@@ -873,352 +870,352 @@
                   <c:v>618</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>652</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>707</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>766</c:v>
+                  <c:v>781</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>829</c:v>
+                  <c:v>845</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>896</c:v>
+                  <c:v>914</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>968</c:v>
+                  <c:v>988</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1044</c:v>
+                  <c:v>1067</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1125</c:v>
+                  <c:v>1150</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1212</c:v>
+                  <c:v>1239</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1303</c:v>
+                  <c:v>1332</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1399</c:v>
+                  <c:v>1431</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1500</c:v>
+                  <c:v>1534</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1607</c:v>
+                  <c:v>1643</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1718</c:v>
+                  <c:v>1757</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1834</c:v>
+                  <c:v>1876</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1955</c:v>
+                  <c:v>1999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2081</c:v>
+                  <c:v>2126</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2210</c:v>
+                  <c:v>2258</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2343</c:v>
+                  <c:v>2393</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2480</c:v>
+                  <c:v>2531</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2620</c:v>
+                  <c:v>2672</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2762</c:v>
+                  <c:v>2815</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2906</c:v>
+                  <c:v>2960</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3052</c:v>
+                  <c:v>3106</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3198</c:v>
+                  <c:v>3252</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3344</c:v>
+                  <c:v>3398</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3490</c:v>
+                  <c:v>3543</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3635</c:v>
+                  <c:v>3688</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3779</c:v>
+                  <c:v>3830</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3920</c:v>
+                  <c:v>3970</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4059</c:v>
+                  <c:v>4106</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4195</c:v>
+                  <c:v>4240</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4328</c:v>
+                  <c:v>4370</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4457</c:v>
+                  <c:v>4495</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4582</c:v>
+                  <c:v>4616</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4702</c:v>
+                  <c:v>4733</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4817</c:v>
+                  <c:v>4844</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4928</c:v>
+                  <c:v>4951</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5034</c:v>
+                  <c:v>5052</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5135</c:v>
+                  <c:v>5148</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5231</c:v>
+                  <c:v>5240</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5322</c:v>
+                  <c:v>5326</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5408</c:v>
+                  <c:v>5407</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5489</c:v>
+                  <c:v>5483</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5565</c:v>
+                  <c:v>5555</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5636</c:v>
+                  <c:v>5622</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5703</c:v>
+                  <c:v>5685</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5765</c:v>
+                  <c:v>5743</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5823</c:v>
+                  <c:v>5797</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5877</c:v>
+                  <c:v>5848</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5927</c:v>
+                  <c:v>5895</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5973</c:v>
+                  <c:v>5938</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>5979</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>6016</c:v>
                 </c:pt>
-                <c:pt idx="84">
-                  <c:v>6056</c:v>
-                </c:pt>
                 <c:pt idx="85">
-                  <c:v>6093</c:v>
+                  <c:v>6050</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6128</c:v>
+                  <c:v>6082</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6161</c:v>
+                  <c:v>6112</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6190</c:v>
+                  <c:v>6139</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6218</c:v>
+                  <c:v>6164</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6243</c:v>
+                  <c:v>6186</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6267</c:v>
+                  <c:v>6208</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6288</c:v>
+                  <c:v>6227</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6307</c:v>
+                  <c:v>6245</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6325</c:v>
+                  <c:v>6261</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6341</c:v>
+                  <c:v>6276</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6356</c:v>
+                  <c:v>6290</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6369</c:v>
+                  <c:v>6302</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6381</c:v>
+                  <c:v>6314</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6393</c:v>
+                  <c:v>6324</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>6334</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6343</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6351</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6359</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6365</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6372</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6377</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6383</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6387</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6392</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6396</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6399</c:v>
+                </c:pt>
+                <c:pt idx="112">
                   <c:v>6403</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="113">
+                  <c:v>6406</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6408</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6411</c:v>
+                </c:pt>
+                <c:pt idx="116">
                   <c:v>6413</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="117">
+                  <c:v>6415</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6417</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6419</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6421</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>6422</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="122">
+                  <c:v>6424</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6425</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6426</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6427</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6428</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6429</c:v>
+                </c:pt>
+                <c:pt idx="128">
                   <c:v>6430</c:v>
                 </c:pt>
-                <c:pt idx="104">
-                  <c:v>6438</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>6445</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>6452</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>6457</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>6463</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>6468</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>6472</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>6476</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>6479</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>6483</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>6486</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>6488</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>6491</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>6494</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>6496</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>6498</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>6502</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>6503</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>6505</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>6506</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>6507</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>6508</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>6509</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>6510</c:v>
-                </c:pt>
                 <c:pt idx="129">
-                  <c:v>6510</c:v>
+                  <c:v>6430</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>6511</c:v>
+                  <c:v>6431</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>6512</c:v>
+                  <c:v>6431</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>6512</c:v>
+                  <c:v>6432</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>6513</c:v>
+                  <c:v>6433</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>6513</c:v>
+                  <c:v>6433</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>6514</c:v>
+                  <c:v>6433</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>6514</c:v>
+                  <c:v>6434</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6515</c:v>
+                  <c:v>6434</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6515</c:v>
+                  <c:v>6434</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6516</c:v>
+                  <c:v>6435</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>6516</c:v>
+                  <c:v>6435</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>6516</c:v>
+                  <c:v>6435</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>6516</c:v>
+                  <c:v>6435</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>6517</c:v>
+                  <c:v>6436</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>6517</c:v>
+                  <c:v>6436</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>6517</c:v>
+                  <c:v>6436</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>6517</c:v>
+                  <c:v>6436</c:v>
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>6517</c:v>
@@ -1727,11 +1724,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-347167552"/>
-        <c:axId val="-347169728"/>
+        <c:axId val="532356416"/>
+        <c:axId val="532354784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-347167552"/>
+        <c:axId val="532356416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1788,12 +1785,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-347169728"/>
+        <c:crossAx val="532354784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-347169728"/>
+        <c:axId val="532354784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1844,7 +1841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-347167552"/>
+        <c:crossAx val="532356416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2798,7 +2795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
@@ -3739,8 +3736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3772,7 +3769,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>6519.19</v>
+        <v>6437.7599999999993</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3789,7 +3786,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>146.52104566166526</v>
+        <v>146.36600601758619</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3885,7 +3882,7 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -3902,7 +3899,7 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -3919,7 +3916,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>6519</v>
+        <v>6438</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -4170,7 +4167,7 @@
         <v>657</v>
       </c>
       <c r="F34">
-        <v>652</v>
+        <v>664</v>
       </c>
     </row>
     <row r="35" spans="4:6">
@@ -4181,7 +4178,7 @@
         <v>693</v>
       </c>
       <c r="F35">
-        <v>707</v>
+        <v>721</v>
       </c>
     </row>
     <row r="36" spans="4:6">
@@ -4192,7 +4189,7 @@
         <v>764</v>
       </c>
       <c r="F36">
-        <v>766</v>
+        <v>781</v>
       </c>
     </row>
     <row r="37" spans="4:6">
@@ -4203,7 +4200,7 @@
         <v>835</v>
       </c>
       <c r="F37">
-        <v>829</v>
+        <v>845</v>
       </c>
     </row>
     <row r="38" spans="4:6">
@@ -4214,7 +4211,7 @@
         <v>895</v>
       </c>
       <c r="F38">
-        <v>896</v>
+        <v>914</v>
       </c>
     </row>
     <row r="39" spans="4:6">
@@ -4225,7 +4222,7 @@
         <v>980</v>
       </c>
       <c r="F39">
-        <v>968</v>
+        <v>988</v>
       </c>
     </row>
     <row r="40" spans="4:6">
@@ -4236,7 +4233,7 @@
         <v>1062</v>
       </c>
       <c r="F40">
-        <v>1044</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="41" spans="4:6">
@@ -4247,7 +4244,7 @@
         <v>1145</v>
       </c>
       <c r="F41">
-        <v>1125</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="42" spans="4:6">
@@ -4258,7 +4255,7 @@
         <v>1217</v>
       </c>
       <c r="F42">
-        <v>1212</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="43" spans="4:6">
@@ -4269,7 +4266,7 @@
         <v>1289</v>
       </c>
       <c r="F43">
-        <v>1303</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="44" spans="4:6">
@@ -4280,7 +4277,7 @@
         <v>1363</v>
       </c>
       <c r="F44">
-        <v>1399</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="45" spans="4:6">
@@ -4291,7 +4288,7 @@
         <v>1451</v>
       </c>
       <c r="F45">
-        <v>1500</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="46" spans="4:6">
@@ -4302,7 +4299,7 @@
         <v>1545</v>
       </c>
       <c r="F46">
-        <v>1607</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="47" spans="4:6">
@@ -4313,7 +4310,7 @@
         <v>1631</v>
       </c>
       <c r="F47">
-        <v>1718</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="48" spans="4:6">
@@ -4324,7 +4321,7 @@
         <v>1758</v>
       </c>
       <c r="F48">
-        <v>1834</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="49" spans="4:6">
@@ -4335,7 +4332,7 @@
         <v>1873</v>
       </c>
       <c r="F49">
-        <v>1955</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="50" spans="4:6">
@@ -4346,7 +4343,7 @@
         <v>2003</v>
       </c>
       <c r="F50">
-        <v>2081</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="51" spans="4:6">
@@ -4357,7 +4354,7 @@
         <v>2141</v>
       </c>
       <c r="F51">
-        <v>2210</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="52" spans="4:6">
@@ -4368,7 +4365,7 @@
         <v>2255</v>
       </c>
       <c r="F52">
-        <v>2343</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="53" spans="4:6">
@@ -4379,7 +4376,7 @@
         <v>2456</v>
       </c>
       <c r="F53">
-        <v>2480</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="54" spans="4:6">
@@ -4390,7 +4387,7 @@
         <v>2656</v>
       </c>
       <c r="F54">
-        <v>2620</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="55" spans="4:6">
@@ -4401,7 +4398,7 @@
         <v>2853</v>
       </c>
       <c r="F55">
-        <v>2762</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="56" spans="4:6">
@@ -4412,7 +4409,7 @@
         <v>3048</v>
       </c>
       <c r="F56">
-        <v>2906</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="57" spans="4:6">
@@ -4423,7 +4420,7 @@
         <v>3190</v>
       </c>
       <c r="F57">
-        <v>3052</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="58" spans="4:6">
@@ -4434,7 +4431,7 @@
         <v>3302</v>
       </c>
       <c r="F58">
-        <v>3198</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="59" spans="4:6">
@@ -4445,7 +4442,7 @@
         <v>3397</v>
       </c>
       <c r="F59">
-        <v>3344</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="60" spans="4:6">
@@ -4456,7 +4453,7 @@
         <v>3560</v>
       </c>
       <c r="F60">
-        <v>3490</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="61" spans="4:6">
@@ -4467,7 +4464,7 @@
         <v>3733</v>
       </c>
       <c r="F61">
-        <v>3635</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="62" spans="4:6">
@@ -4478,7 +4475,7 @@
         <v>3924</v>
       </c>
       <c r="F62">
-        <v>3779</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="63" spans="4:6">
@@ -4489,7 +4486,7 @@
         <v>4109</v>
       </c>
       <c r="F63">
-        <v>3920</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="64" spans="4:6">
@@ -4500,7 +4497,7 @@
         <v>4276</v>
       </c>
       <c r="F64">
-        <v>4059</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="65" spans="4:6">
@@ -4511,7 +4508,7 @@
         <v>4364</v>
       </c>
       <c r="F65">
-        <v>4195</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="66" spans="4:6">
@@ -4522,7 +4519,7 @@
         <v>4461</v>
       </c>
       <c r="F66">
-        <v>4328</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="67" spans="4:6">
@@ -4533,7 +4530,7 @@
         <v>4603</v>
       </c>
       <c r="F67">
-        <v>4457</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="68" spans="4:6">
@@ -4544,7 +4541,7 @@
         <v>4700</v>
       </c>
       <c r="F68">
-        <v>4582</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="69" spans="4:6">
@@ -4555,7 +4552,7 @@
         <v>4751</v>
       </c>
       <c r="F69">
-        <v>4702</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="70" spans="4:6">
@@ -4566,7 +4563,7 @@
         <v>4784</v>
       </c>
       <c r="F70">
-        <v>4817</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="71" spans="4:6">
@@ -4577,7 +4574,7 @@
         <v>4790</v>
       </c>
       <c r="F71">
-        <v>4928</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="72" spans="4:6">
@@ -4585,7 +4582,7 @@
         <v>70</v>
       </c>
       <c r="F72">
-        <v>5034</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="73" spans="4:6">
@@ -4593,7 +4590,7 @@
         <v>71</v>
       </c>
       <c r="F73">
-        <v>5135</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="74" spans="4:6">
@@ -4601,7 +4598,7 @@
         <v>72</v>
       </c>
       <c r="F74">
-        <v>5231</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="75" spans="4:6">
@@ -4609,7 +4606,7 @@
         <v>73</v>
       </c>
       <c r="F75">
-        <v>5322</v>
+        <v>5326</v>
       </c>
     </row>
     <row r="76" spans="4:6">
@@ -4617,7 +4614,7 @@
         <v>74</v>
       </c>
       <c r="F76">
-        <v>5408</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="77" spans="4:6">
@@ -4625,7 +4622,7 @@
         <v>75</v>
       </c>
       <c r="F77">
-        <v>5489</v>
+        <v>5483</v>
       </c>
     </row>
     <row r="78" spans="4:6">
@@ -4633,7 +4630,7 @@
         <v>76</v>
       </c>
       <c r="F78">
-        <v>5565</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="79" spans="4:6">
@@ -4641,7 +4638,7 @@
         <v>77</v>
       </c>
       <c r="F79">
-        <v>5636</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="80" spans="4:6">
@@ -4649,7 +4646,7 @@
         <v>78</v>
       </c>
       <c r="F80">
-        <v>5703</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="81" spans="4:6">
@@ -4657,7 +4654,7 @@
         <v>79</v>
       </c>
       <c r="F81">
-        <v>5765</v>
+        <v>5743</v>
       </c>
     </row>
     <row r="82" spans="4:6">
@@ -4665,7 +4662,7 @@
         <v>80</v>
       </c>
       <c r="F82">
-        <v>5823</v>
+        <v>5797</v>
       </c>
     </row>
     <row r="83" spans="4:6">
@@ -4673,7 +4670,7 @@
         <v>81</v>
       </c>
       <c r="F83">
-        <v>5877</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="84" spans="4:6">
@@ -4681,7 +4678,7 @@
         <v>82</v>
       </c>
       <c r="F84">
-        <v>5927</v>
+        <v>5895</v>
       </c>
     </row>
     <row r="85" spans="4:6">
@@ -4689,7 +4686,7 @@
         <v>83</v>
       </c>
       <c r="F85">
-        <v>5973</v>
+        <v>5938</v>
       </c>
     </row>
     <row r="86" spans="4:6">
@@ -4697,7 +4694,7 @@
         <v>84</v>
       </c>
       <c r="F86">
-        <v>6016</v>
+        <v>5979</v>
       </c>
     </row>
     <row r="87" spans="4:6">
@@ -4705,7 +4702,7 @@
         <v>85</v>
       </c>
       <c r="F87">
-        <v>6056</v>
+        <v>6016</v>
       </c>
     </row>
     <row r="88" spans="4:6">
@@ -4713,7 +4710,7 @@
         <v>86</v>
       </c>
       <c r="F88">
-        <v>6093</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="89" spans="4:6">
@@ -4721,7 +4718,7 @@
         <v>87</v>
       </c>
       <c r="F89">
-        <v>6128</v>
+        <v>6082</v>
       </c>
     </row>
     <row r="90" spans="4:6">
@@ -4729,7 +4726,7 @@
         <v>88</v>
       </c>
       <c r="F90">
-        <v>6161</v>
+        <v>6112</v>
       </c>
     </row>
     <row r="91" spans="4:6">
@@ -4737,7 +4734,7 @@
         <v>89</v>
       </c>
       <c r="F91">
-        <v>6190</v>
+        <v>6139</v>
       </c>
     </row>
     <row r="92" spans="4:6">
@@ -4745,7 +4742,7 @@
         <v>90</v>
       </c>
       <c r="F92">
-        <v>6218</v>
+        <v>6164</v>
       </c>
     </row>
     <row r="93" spans="4:6">
@@ -4753,7 +4750,7 @@
         <v>91</v>
       </c>
       <c r="F93">
-        <v>6243</v>
+        <v>6186</v>
       </c>
     </row>
     <row r="94" spans="4:6">
@@ -4761,7 +4758,7 @@
         <v>92</v>
       </c>
       <c r="F94">
-        <v>6267</v>
+        <v>6208</v>
       </c>
     </row>
     <row r="95" spans="4:6">
@@ -4769,7 +4766,7 @@
         <v>93</v>
       </c>
       <c r="F95">
-        <v>6288</v>
+        <v>6227</v>
       </c>
     </row>
     <row r="96" spans="4:6">
@@ -4777,7 +4774,7 @@
         <v>94</v>
       </c>
       <c r="F96">
-        <v>6307</v>
+        <v>6245</v>
       </c>
     </row>
     <row r="97" spans="4:6">
@@ -4785,7 +4782,7 @@
         <v>95</v>
       </c>
       <c r="F97">
-        <v>6325</v>
+        <v>6261</v>
       </c>
     </row>
     <row r="98" spans="4:6">
@@ -4793,7 +4790,7 @@
         <v>96</v>
       </c>
       <c r="F98">
-        <v>6341</v>
+        <v>6276</v>
       </c>
     </row>
     <row r="99" spans="4:6">
@@ -4801,7 +4798,7 @@
         <v>97</v>
       </c>
       <c r="F99">
-        <v>6356</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="100" spans="4:6">
@@ -4809,7 +4806,7 @@
         <v>98</v>
       </c>
       <c r="F100">
-        <v>6369</v>
+        <v>6302</v>
       </c>
     </row>
     <row r="101" spans="4:6">
@@ -4817,7 +4814,7 @@
         <v>99</v>
       </c>
       <c r="F101">
-        <v>6381</v>
+        <v>6314</v>
       </c>
     </row>
     <row r="102" spans="4:6">
@@ -4825,7 +4822,7 @@
         <v>100</v>
       </c>
       <c r="F102">
-        <v>6393</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="103" spans="4:6">
@@ -4833,7 +4830,7 @@
         <v>101</v>
       </c>
       <c r="F103">
-        <v>6403</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="104" spans="4:6">
@@ -4841,7 +4838,7 @@
         <v>102</v>
       </c>
       <c r="F104">
-        <v>6413</v>
+        <v>6343</v>
       </c>
     </row>
     <row r="105" spans="4:6">
@@ -4849,7 +4846,7 @@
         <v>103</v>
       </c>
       <c r="F105">
-        <v>6422</v>
+        <v>6351</v>
       </c>
     </row>
     <row r="106" spans="4:6">
@@ -4857,7 +4854,7 @@
         <v>104</v>
       </c>
       <c r="F106">
-        <v>6430</v>
+        <v>6359</v>
       </c>
     </row>
     <row r="107" spans="4:6">
@@ -4865,7 +4862,7 @@
         <v>105</v>
       </c>
       <c r="F107">
-        <v>6438</v>
+        <v>6365</v>
       </c>
     </row>
     <row r="108" spans="4:6">
@@ -4873,7 +4870,7 @@
         <v>106</v>
       </c>
       <c r="F108">
-        <v>6445</v>
+        <v>6372</v>
       </c>
     </row>
     <row r="109" spans="4:6">
@@ -4881,7 +4878,7 @@
         <v>107</v>
       </c>
       <c r="F109">
-        <v>6452</v>
+        <v>6377</v>
       </c>
     </row>
     <row r="110" spans="4:6">
@@ -4889,7 +4886,7 @@
         <v>108</v>
       </c>
       <c r="F110">
-        <v>6457</v>
+        <v>6383</v>
       </c>
     </row>
     <row r="111" spans="4:6">
@@ -4897,7 +4894,7 @@
         <v>109</v>
       </c>
       <c r="F111">
-        <v>6463</v>
+        <v>6387</v>
       </c>
     </row>
     <row r="112" spans="4:6">
@@ -4905,7 +4902,7 @@
         <v>110</v>
       </c>
       <c r="F112">
-        <v>6468</v>
+        <v>6392</v>
       </c>
     </row>
     <row r="113" spans="4:6">
@@ -4913,7 +4910,7 @@
         <v>111</v>
       </c>
       <c r="F113">
-        <v>6472</v>
+        <v>6396</v>
       </c>
     </row>
     <row r="114" spans="4:6">
@@ -4921,7 +4918,7 @@
         <v>112</v>
       </c>
       <c r="F114">
-        <v>6476</v>
+        <v>6399</v>
       </c>
     </row>
     <row r="115" spans="4:6">
@@ -4929,7 +4926,7 @@
         <v>113</v>
       </c>
       <c r="F115">
-        <v>6479</v>
+        <v>6403</v>
       </c>
     </row>
     <row r="116" spans="4:6">
@@ -4937,7 +4934,7 @@
         <v>114</v>
       </c>
       <c r="F116">
-        <v>6483</v>
+        <v>6406</v>
       </c>
     </row>
     <row r="117" spans="4:6">
@@ -4945,7 +4942,7 @@
         <v>115</v>
       </c>
       <c r="F117">
-        <v>6486</v>
+        <v>6408</v>
       </c>
     </row>
     <row r="118" spans="4:6">
@@ -4953,7 +4950,7 @@
         <v>116</v>
       </c>
       <c r="F118">
-        <v>6488</v>
+        <v>6411</v>
       </c>
     </row>
     <row r="119" spans="4:6">
@@ -4961,7 +4958,7 @@
         <v>117</v>
       </c>
       <c r="F119">
-        <v>6491</v>
+        <v>6413</v>
       </c>
     </row>
     <row r="120" spans="4:6">
@@ -4969,7 +4966,7 @@
         <v>118</v>
       </c>
       <c r="F120">
-        <v>6494</v>
+        <v>6415</v>
       </c>
     </row>
     <row r="121" spans="4:6">
@@ -4977,7 +4974,7 @@
         <v>119</v>
       </c>
       <c r="F121">
-        <v>6496</v>
+        <v>6417</v>
       </c>
     </row>
     <row r="122" spans="4:6">
@@ -4985,7 +4982,7 @@
         <v>120</v>
       </c>
       <c r="F122">
-        <v>6498</v>
+        <v>6419</v>
       </c>
     </row>
     <row r="123" spans="4:6">
@@ -4993,7 +4990,7 @@
         <v>121</v>
       </c>
       <c r="F123">
-        <v>6500</v>
+        <v>6421</v>
       </c>
     </row>
     <row r="124" spans="4:6">
@@ -5001,7 +4998,7 @@
         <v>122</v>
       </c>
       <c r="F124">
-        <v>6502</v>
+        <v>6422</v>
       </c>
     </row>
     <row r="125" spans="4:6">
@@ -5009,7 +5006,7 @@
         <v>123</v>
       </c>
       <c r="F125">
-        <v>6503</v>
+        <v>6424</v>
       </c>
     </row>
     <row r="126" spans="4:6">
@@ -5017,7 +5014,7 @@
         <v>124</v>
       </c>
       <c r="F126">
-        <v>6505</v>
+        <v>6425</v>
       </c>
     </row>
     <row r="127" spans="4:6">
@@ -5025,7 +5022,7 @@
         <v>125</v>
       </c>
       <c r="F127">
-        <v>6506</v>
+        <v>6426</v>
       </c>
     </row>
     <row r="128" spans="4:6">
@@ -5033,7 +5030,7 @@
         <v>126</v>
       </c>
       <c r="F128">
-        <v>6507</v>
+        <v>6427</v>
       </c>
     </row>
     <row r="129" spans="4:6">
@@ -5041,7 +5038,7 @@
         <v>127</v>
       </c>
       <c r="F129">
-        <v>6508</v>
+        <v>6428</v>
       </c>
     </row>
     <row r="130" spans="4:6">
@@ -5049,7 +5046,7 @@
         <v>128</v>
       </c>
       <c r="F130">
-        <v>6509</v>
+        <v>6429</v>
       </c>
     </row>
     <row r="131" spans="4:6">
@@ -5057,7 +5054,7 @@
         <v>129</v>
       </c>
       <c r="F131">
-        <v>6510</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="132" spans="4:6">
@@ -5065,7 +5062,7 @@
         <v>130</v>
       </c>
       <c r="F132">
-        <v>6510</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="133" spans="4:6">
@@ -5073,7 +5070,7 @@
         <v>131</v>
       </c>
       <c r="F133">
-        <v>6511</v>
+        <v>6431</v>
       </c>
     </row>
     <row r="134" spans="4:6">
@@ -5081,7 +5078,7 @@
         <v>132</v>
       </c>
       <c r="F134">
-        <v>6512</v>
+        <v>6431</v>
       </c>
     </row>
     <row r="135" spans="4:6">
@@ -5089,7 +5086,7 @@
         <v>133</v>
       </c>
       <c r="F135">
-        <v>6512</v>
+        <v>6432</v>
       </c>
     </row>
     <row r="136" spans="4:6">
@@ -5097,7 +5094,7 @@
         <v>134</v>
       </c>
       <c r="F136">
-        <v>6513</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="137" spans="4:6">
@@ -5105,7 +5102,7 @@
         <v>135</v>
       </c>
       <c r="F137">
-        <v>6513</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="138" spans="4:6">
@@ -5113,7 +5110,7 @@
         <v>136</v>
       </c>
       <c r="F138">
-        <v>6514</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="139" spans="4:6">
@@ -5121,7 +5118,7 @@
         <v>137</v>
       </c>
       <c r="F139">
-        <v>6514</v>
+        <v>6434</v>
       </c>
     </row>
     <row r="140" spans="4:6">
@@ -5129,7 +5126,7 @@
         <v>138</v>
       </c>
       <c r="F140">
-        <v>6515</v>
+        <v>6434</v>
       </c>
     </row>
     <row r="141" spans="4:6">
@@ -5137,7 +5134,7 @@
         <v>139</v>
       </c>
       <c r="F141">
-        <v>6515</v>
+        <v>6434</v>
       </c>
     </row>
     <row r="142" spans="4:6">
@@ -5145,7 +5142,7 @@
         <v>140</v>
       </c>
       <c r="F142">
-        <v>6516</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="143" spans="4:6">
@@ -5153,7 +5150,7 @@
         <v>141</v>
       </c>
       <c r="F143">
-        <v>6516</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="144" spans="4:6">
@@ -5161,7 +5158,7 @@
         <v>142</v>
       </c>
       <c r="F144">
-        <v>6516</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="145" spans="4:6">
@@ -5169,7 +5166,7 @@
         <v>143</v>
       </c>
       <c r="F145">
-        <v>6516</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="146" spans="4:6">
@@ -5177,7 +5174,7 @@
         <v>144</v>
       </c>
       <c r="F146">
-        <v>6517</v>
+        <v>6436</v>
       </c>
     </row>
     <row r="147" spans="4:6">
@@ -5185,7 +5182,7 @@
         <v>145</v>
       </c>
       <c r="F147">
-        <v>6517</v>
+        <v>6436</v>
       </c>
     </row>
     <row r="148" spans="4:6">
@@ -5193,7 +5190,7 @@
         <v>146</v>
       </c>
       <c r="F148">
-        <v>6517</v>
+        <v>6436</v>
       </c>
     </row>
     <row r="149" spans="4:6">
@@ -5201,7 +5198,7 @@
         <v>147</v>
       </c>
       <c r="F149">
-        <v>6517</v>
+        <v>6436</v>
       </c>
     </row>
     <row r="150" spans="4:6">
@@ -5237,15 +5234,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:5" ht="16.5">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -5262,7 +5259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5">
+    <row r="2" spans="1:5" ht="16.5">
       <c r="A2" s="4">
         <v>39914</v>
       </c>
@@ -5273,7 +5270,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
+    <row r="3" spans="1:5" ht="16.5">
       <c r="A3" s="4">
         <v>39915</v>
       </c>
@@ -5287,11 +5284,8 @@
       <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5">
+    </row>
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="4">
         <v>39916</v>
       </c>
@@ -5308,7 +5302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="4">
         <v>39917</v>
       </c>
@@ -5325,7 +5319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="4">
         <v>39918</v>
       </c>
@@ -5342,7 +5336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="4">
         <v>39919</v>
       </c>
@@ -5359,7 +5353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="4">
         <v>39920</v>
       </c>
@@ -5376,7 +5370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="4">
         <v>39921</v>
       </c>
@@ -5393,7 +5387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="4">
         <v>39922</v>
       </c>
@@ -5410,7 +5404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="4">
         <v>39923</v>
       </c>
@@ -5427,7 +5421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="4">
         <v>39924</v>
       </c>
@@ -5444,7 +5438,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="4">
         <v>39925</v>
       </c>
@@ -5461,7 +5455,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="4">
         <v>39926</v>
       </c>
@@ -5478,7 +5472,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="4">
         <v>39927</v>
       </c>
@@ -5495,7 +5489,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="4">
         <v>39928</v>
       </c>
@@ -6305,6 +6299,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>